--- a/data/poor structure/Q1 Returns/Jan 2021.xlsx
+++ b/data/poor structure/Q1 Returns/Jan 2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Craig\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Craig\Documents\GitHub\coding-club-trashPanda\data\poor structure\Q1 Returns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A364D2-FDAD-41A1-9095-02B8C1455C74}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4661006-B0F5-4050-9C83-BDD8DD183B69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{FF6B49C3-71D7-4279-B516-552CFBE2C687}"/>
+    <workbookView xWindow="4800" yWindow="2560" windowWidth="14400" windowHeight="8210" activeTab="4" xr2:uid="{FF6B49C3-71D7-4279-B516-552CFBE2C687}"/>
   </bookViews>
   <sheets>
     <sheet name="CCG1" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="26">
   <si>
     <t>Completed by:</t>
   </si>
@@ -99,6 +99,51 @@
   </si>
   <si>
     <t>Area name:</t>
+  </si>
+  <si>
+    <t>NHS CCG12</t>
+  </si>
+  <si>
+    <t>LA42</t>
+  </si>
+  <si>
+    <t>User3</t>
+  </si>
+  <si>
+    <t>NHS CCG76</t>
+  </si>
+  <si>
+    <t>LA90</t>
+  </si>
+  <si>
+    <t>User62</t>
+  </si>
+  <si>
+    <t>NHS CCG65</t>
+  </si>
+  <si>
+    <t>LA72</t>
+  </si>
+  <si>
+    <t>User54</t>
+  </si>
+  <si>
+    <t>NHS CCG33</t>
+  </si>
+  <si>
+    <t>LA51</t>
+  </si>
+  <si>
+    <t>User27</t>
+  </si>
+  <si>
+    <t>NHS CCG49</t>
+  </si>
+  <si>
+    <t>LA41</t>
+  </si>
+  <si>
+    <t>User16</t>
   </si>
 </sst>
 </file>
@@ -266,10 +311,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -571,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1287BC21-3F90-4967-A5C0-206DB20C5E6C}">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -585,16 +626,14 @@
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="str">
-        <f ca="1">"NHS CCG"&amp;RANDBETWEEN(1,100)</f>
-        <v>NHS CCG49</v>
+      <c r="B1" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="str">
-        <f ca="1">"LA"&amp;RANDBETWEEN(1,100)</f>
-        <v>LA66</v>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="5" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -602,15 +641,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="8">
-        <f ca="1">RANDBETWEEN(1,10000000)</f>
-        <v>9872447</v>
+        <v>1430180</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="8">
-        <f ca="1">RANDBETWEEN(1,10000000)</f>
-        <v>1258244</v>
+        <v>3427539</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -634,15 +671,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="8">
-        <f ca="1">RANDBETWEEN(1,10000000)</f>
-        <v>3558760</v>
+        <v>3747955</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="8">
-        <f ca="1">RANDBETWEEN(1,10000000)</f>
-        <v>6006571</v>
+        <v>2262425</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -665,9 +700,8 @@
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3" t="str">
-        <f ca="1">"User"&amp;RANDBETWEEN(1,100)</f>
-        <v>User63</v>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
@@ -681,8 +715,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="8">
-        <f ca="1">RANDBETWEEN(1,10000000)</f>
-        <v>9310380</v>
+        <v>6981879</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="10"/>
@@ -692,15 +725,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="8">
-        <f ca="1">RANDBETWEEN(1,10000000)</f>
-        <v>7147309</v>
+        <v>4927125</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="8">
-        <f ca="1">RANDBETWEEN(1,10000000)</f>
-        <v>4230322</v>
+        <v>2204810</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -716,7 +747,7 @@
   <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B5" sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -729,16 +760,14 @@
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="str">
-        <f ca="1">"NHS CCG"&amp;RANDBETWEEN(1,100)</f>
-        <v>NHS CCG48</v>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="str">
-        <f ca="1">"LA"&amp;RANDBETWEEN(1,100)</f>
-        <v>LA11</v>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="5" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -746,15 +775,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="8">
-        <f ca="1">RANDBETWEEN(1,10000000)</f>
-        <v>3647750</v>
+        <v>9001001</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="8">
-        <f ca="1">RANDBETWEEN(1,10000000)</f>
-        <v>6768480</v>
+        <v>3248635</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -778,15 +805,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="8">
-        <f ca="1">RANDBETWEEN(1,10000000)</f>
-        <v>7586420</v>
+        <v>2851775</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="8">
-        <f ca="1">RANDBETWEEN(1,10000000)</f>
-        <v>5035943</v>
+        <v>4301222</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -809,9 +834,8 @@
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3" t="str">
-        <f ca="1">"User"&amp;RANDBETWEEN(1,100)</f>
-        <v>User69</v>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
@@ -825,8 +849,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="8">
-        <f ca="1">RANDBETWEEN(1,10000000)</f>
-        <v>4566296</v>
+        <v>405789</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="10"/>
@@ -836,15 +859,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="8">
-        <f ca="1">RANDBETWEEN(1,10000000)</f>
-        <v>5195206</v>
+        <v>8250366</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="8">
-        <f ca="1">RANDBETWEEN(1,10000000)</f>
-        <v>1060232</v>
+        <v>734120</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -859,7 +880,7 @@
   <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B5" sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -872,16 +893,14 @@
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="str">
-        <f ca="1">"NHS CCG"&amp;RANDBETWEEN(1,100)</f>
-        <v>NHS CCG28</v>
+      <c r="B1" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="str">
-        <f ca="1">"LA"&amp;RANDBETWEEN(1,100)</f>
-        <v>LA8</v>
+      <c r="D1" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="5" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -889,15 +908,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="8">
-        <f ca="1">RANDBETWEEN(1,10000000)</f>
-        <v>5709402</v>
+        <v>2582374</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="8">
-        <f ca="1">RANDBETWEEN(1,10000000)</f>
-        <v>579921</v>
+        <v>8440200</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -921,15 +938,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="8">
-        <f ca="1">RANDBETWEEN(1,10000000)</f>
-        <v>3822813</v>
+        <v>5268969</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="8">
-        <f ca="1">RANDBETWEEN(1,10000000)</f>
-        <v>9747585</v>
+        <v>80584</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -952,9 +967,8 @@
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3" t="str">
-        <f ca="1">"User"&amp;RANDBETWEEN(1,100)</f>
-        <v>User94</v>
+      <c r="B4" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
@@ -968,8 +982,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="8">
-        <f ca="1">RANDBETWEEN(1,10000000)</f>
-        <v>7096588</v>
+        <v>5705043</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="10"/>
@@ -979,15 +992,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="8">
-        <f ca="1">RANDBETWEEN(1,10000000)</f>
-        <v>1838838</v>
+        <v>7183700</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="8">
-        <f ca="1">RANDBETWEEN(1,10000000)</f>
-        <v>5978620</v>
+        <v>9859693</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -1002,7 +1013,7 @@
   <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B5" sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1015,16 +1026,14 @@
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="str">
-        <f ca="1">"NHS CCG"&amp;RANDBETWEEN(1,100)</f>
-        <v>NHS CCG7</v>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="str">
-        <f ca="1">"LA"&amp;RANDBETWEEN(1,100)</f>
-        <v>LA12</v>
+      <c r="D1" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="5" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1032,15 +1041,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="8">
-        <f ca="1">RANDBETWEEN(1,10000000)</f>
-        <v>2427382</v>
+        <v>3660429</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="8">
-        <f ca="1">RANDBETWEEN(1,10000000)</f>
-        <v>2682159</v>
+        <v>6971507</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -1064,15 +1071,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="8">
-        <f ca="1">RANDBETWEEN(1,10000000)</f>
-        <v>4365211</v>
+        <v>6867110</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="8">
-        <f ca="1">RANDBETWEEN(1,10000000)</f>
-        <v>9370090</v>
+        <v>6567754</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -1095,9 +1100,8 @@
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3" t="str">
-        <f ca="1">"User"&amp;RANDBETWEEN(1,100)</f>
-        <v>User77</v>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
@@ -1111,8 +1115,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="8">
-        <f ca="1">RANDBETWEEN(1,10000000)</f>
-        <v>9988953</v>
+        <v>2155947</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="10"/>
@@ -1122,15 +1125,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="8">
-        <f ca="1">RANDBETWEEN(1,10000000)</f>
-        <v>4091536</v>
+        <v>5712364</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="8">
-        <f ca="1">RANDBETWEEN(1,10000000)</f>
-        <v>9989920</v>
+        <v>3566306</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -1144,8 +1145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E75C83-8F46-45B5-A31D-58D4FD7B1B49}">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1158,16 +1159,14 @@
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="str">
-        <f ca="1">"NHS CCG"&amp;RANDBETWEEN(1,100)</f>
-        <v>NHS CCG61</v>
+      <c r="B1" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="str">
-        <f ca="1">"LA"&amp;RANDBETWEEN(1,100)</f>
-        <v>LA34</v>
+      <c r="D1" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="5" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1175,15 +1174,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="8">
-        <f ca="1">RANDBETWEEN(1,10000000)</f>
-        <v>19091</v>
+        <v>6266113</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="8">
-        <f ca="1">RANDBETWEEN(1,10000000)</f>
-        <v>6176294</v>
+        <v>2151355</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -1207,15 +1204,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="8">
-        <f ca="1">RANDBETWEEN(1,10000000)</f>
-        <v>3806289</v>
+        <v>2910281</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="8">
-        <f ca="1">RANDBETWEEN(1,10000000)</f>
-        <v>8394625</v>
+        <v>7082065</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -1238,9 +1233,8 @@
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3" t="str">
-        <f ca="1">"User"&amp;RANDBETWEEN(1,100)</f>
-        <v>User65</v>
+      <c r="B4" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
@@ -1254,8 +1248,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="8">
-        <f ca="1">RANDBETWEEN(1,10000000)</f>
-        <v>9041499</v>
+        <v>7884426</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="10"/>
@@ -1265,15 +1258,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="8">
-        <f ca="1">RANDBETWEEN(1,10000000)</f>
-        <v>2639502</v>
+        <v>1442066</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="8">
-        <f ca="1">RANDBETWEEN(1,10000000)</f>
-        <v>6442136</v>
+        <v>1918051</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
